--- a/data.raw/Graduacao.xlsx
+++ b/data.raw/Graduacao.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20830"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7303C3CB-82C1-4CCC-82B3-CA6119FFB0B2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{27AF1C8A-6D12-4D20-857A-110AAB80CC2C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
     <t>TURMA_INGRESSO</t>
   </si>
   <si>
-    <t>PERÍODO LETIVO</t>
+    <t>PERIODO_LETIVO</t>
   </si>
   <si>
     <t>MATRICULAS_INICIAS</t>
@@ -41,13 +41,13 @@
     <t>CONCLUINTES</t>
   </si>
   <si>
-    <t>TAXA DE EVASÃO</t>
+    <t>TAXA_DE_EVASAO</t>
   </si>
   <si>
     <t>MATRICULADOS_CICLO_TURMA</t>
   </si>
   <si>
-    <t>TAXA DE RETENÇÃO CICLO</t>
+    <t>TAXA_DE_RETENCAO</t>
   </si>
   <si>
     <t xml:space="preserve">MATEMÁTICA </t>
@@ -482,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I348" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="K2" sqref="K2:K375"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
